--- a/Phi Alpha/Hardware Master Equipment List/Master_Equipment_List_PhiAlpha452- Inventory.xlsx
+++ b/Phi Alpha/Hardware Master Equipment List/Master_Equipment_List_PhiAlpha452- Inventory.xlsx
@@ -1353,9 +1353,9 @@
   <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="795" topLeftCell="A1" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="795" topLeftCell="A77" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K74" activeCellId="0" sqref="K74"/>
+      <selection pane="bottomLeft" activeCell="K97" activeCellId="0" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3" t="n">
-        <f aca="false">H4*J4</f>
+        <f aca="false">'Inventory List'!H4*'Inventory List'!J4</f>
         <v>0</v>
       </c>
       <c r="L4" s="0"/>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="3" t="n">
-        <f aca="false">H5*J5</f>
+        <f aca="false">'Inventory List'!H5*'Inventory List'!J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="0"/>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="3" t="n">
-        <f aca="false">H6*J6</f>
+        <f aca="false">'Inventory List'!H6*'Inventory List'!J6</f>
         <v>0</v>
       </c>
       <c r="L6" s="0"/>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="3" t="n">
-        <f aca="false">H7*J7</f>
+        <f aca="false">'Inventory List'!H7*'Inventory List'!J7</f>
         <v>0</v>
       </c>
       <c r="L7" s="0"/>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3" t="n">
-        <f aca="false">H8*J8</f>
+        <f aca="false">'Inventory List'!H8*'Inventory List'!J8</f>
         <v>0</v>
       </c>
       <c r="L8" s="0"/>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="3" t="n">
-        <f aca="false">H11*J11</f>
+        <f aca="false">'Inventory List'!H11*'Inventory List'!J11</f>
         <v>0</v>
       </c>
       <c r="L11" s="0"/>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3" t="n">
-        <f aca="false">H12*J12</f>
+        <f aca="false">'Inventory List'!H12*'Inventory List'!J12</f>
         <v>0</v>
       </c>
       <c r="L12" s="0"/>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="3" t="n">
-        <f aca="false">H13*J13</f>
+        <f aca="false">'Inventory List'!H13*'Inventory List'!J13</f>
         <v>0</v>
       </c>
       <c r="L13" s="0"/>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="3" t="n">
-        <f aca="false">H14*J14</f>
+        <f aca="false">'Inventory List'!H14*'Inventory List'!J14</f>
         <v>0</v>
       </c>
       <c r="L14" s="0"/>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="3" t="n">
-        <f aca="false">H17*J17</f>
+        <f aca="false">'Inventory List'!H17*'Inventory List'!J17</f>
         <v>0</v>
       </c>
       <c r="L17" s="0"/>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="3" t="n">
-        <f aca="false">H18*J18</f>
+        <f aca="false">'Inventory List'!H18*'Inventory List'!J18</f>
         <v>0</v>
       </c>
       <c r="L18" s="0"/>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="3" t="n">
-        <f aca="false">H21*J21</f>
+        <f aca="false">'Inventory List'!H21*'Inventory List'!J21</f>
         <v>0</v>
       </c>
       <c r="L21" s="0"/>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="3" t="n">
-        <f aca="false">H24*J24</f>
+        <f aca="false">'Inventory List'!H24*'Inventory List'!J24</f>
         <v>0</v>
       </c>
       <c r="L24" s="0"/>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="3" t="n">
-        <f aca="false">H25*J25</f>
+        <f aca="false">'Inventory List'!H25*'Inventory List'!J25</f>
         <v>0</v>
       </c>
       <c r="L25" s="0"/>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="3" t="n">
-        <f aca="false">H26*J26</f>
+        <f aca="false">'Inventory List'!H26*'Inventory List'!J26</f>
         <v>0</v>
       </c>
       <c r="L26" s="0"/>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="4" t="n">
-        <f aca="false">H27*J27</f>
+        <f aca="false">'Inventory List'!H27*'Inventory List'!J27</f>
         <v>0</v>
       </c>
       <c r="L27" s="5"/>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="3" t="n">
-        <f aca="false">H28*J28</f>
+        <f aca="false">'Inventory List'!H28*'Inventory List'!J28</f>
         <v>0</v>
       </c>
       <c r="L28" s="0"/>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="3" t="n">
-        <f aca="false">H29*J29</f>
+        <f aca="false">'Inventory List'!H29*'Inventory List'!J29</f>
         <v>0</v>
       </c>
       <c r="L29" s="0"/>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="3" t="n">
-        <f aca="false">H30*J30</f>
+        <f aca="false">'Inventory List'!H30*'Inventory List'!J30</f>
         <v>0</v>
       </c>
       <c r="L30" s="0"/>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="3" t="n">
-        <f aca="false">H33*J33</f>
+        <f aca="false">'Inventory List'!H33*'Inventory List'!J33</f>
         <v>0</v>
       </c>
       <c r="L33" s="0"/>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="3" t="n">
-        <f aca="false">H34*J34</f>
+        <f aca="false">'Inventory List'!H34*'Inventory List'!J34</f>
         <v>0</v>
       </c>
       <c r="L34" s="0"/>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="3" t="n">
-        <f aca="false">H35*J35</f>
+        <f aca="false">'Inventory List'!H35*'Inventory List'!J35</f>
         <v>0</v>
       </c>
       <c r="L35" s="0"/>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="3" t="n">
-        <f aca="false">H36*J36</f>
+        <f aca="false">'Inventory List'!H36*'Inventory List'!J36</f>
         <v>0</v>
       </c>
       <c r="L36" s="0"/>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="3" t="n">
-        <f aca="false">H39*J39</f>
+        <f aca="false">'Inventory List'!H39*'Inventory List'!J39</f>
         <v>0</v>
       </c>
       <c r="L39" s="0"/>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="3" t="n">
-        <f aca="false">H40*J40</f>
+        <f aca="false">'Inventory List'!H40*'Inventory List'!J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="0"/>
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="3" t="n">
-        <f aca="false">H41*J41</f>
+        <f aca="false">'Inventory List'!H41*'Inventory List'!J41</f>
         <v>0</v>
       </c>
       <c r="L41" s="0"/>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="3" t="n">
-        <f aca="false">H42*J42</f>
+        <f aca="false">'Inventory List'!H42*'Inventory List'!J42</f>
         <v>0</v>
       </c>
       <c r="L42" s="0"/>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="3" t="n">
-        <f aca="false">H43*J43</f>
+        <f aca="false">'Inventory List'!H43*'Inventory List'!J43</f>
         <v>0</v>
       </c>
       <c r="L43" s="0"/>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="3" t="n">
-        <f aca="false">H44*J44</f>
+        <f aca="false">'Inventory List'!H44*'Inventory List'!J44</f>
         <v>0</v>
       </c>
       <c r="L44" s="0"/>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="3" t="n">
-        <f aca="false">H47*J47</f>
+        <f aca="false">'Inventory List'!H47*'Inventory List'!J47</f>
         <v>0</v>
       </c>
       <c r="L47" s="0"/>
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="3" t="n">
-        <f aca="false">H48*J48</f>
+        <f aca="false">'Inventory List'!H48*'Inventory List'!J48</f>
         <v>0</v>
       </c>
       <c r="L48" s="1" t="s">
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="3" t="n">
-        <f aca="false">H49*J49</f>
+        <f aca="false">'Inventory List'!H49*'Inventory List'!J49</f>
         <v>0</v>
       </c>
       <c r="L49" s="0"/>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="3" t="n">
-        <f aca="false">H50*J50</f>
+        <f aca="false">'Inventory List'!H50*'Inventory List'!J50</f>
         <v>0</v>
       </c>
       <c r="L50" s="0"/>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="3" t="n">
-        <f aca="false">H51*J51</f>
+        <f aca="false">'Inventory List'!H51*'Inventory List'!J51</f>
         <v>0</v>
       </c>
       <c r="L51" s="0"/>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="3" t="n">
-        <f aca="false">H52*J52</f>
+        <f aca="false">'Inventory List'!H52*'Inventory List'!J52</f>
         <v>0</v>
       </c>
       <c r="L52" s="0"/>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="3" t="n">
-        <f aca="false">H53*J53</f>
+        <f aca="false">'Inventory List'!H53*'Inventory List'!J53</f>
         <v>0</v>
       </c>
       <c r="L53" s="0"/>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="3" t="n">
-        <f aca="false">H54*J54</f>
+        <f aca="false">'Inventory List'!H54*'Inventory List'!J54</f>
         <v>0</v>
       </c>
       <c r="L54" s="0"/>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="3" t="n">
-        <f aca="false">H55*J55</f>
+        <f aca="false">'Inventory List'!H55*'Inventory List'!J55</f>
         <v>0</v>
       </c>
       <c r="L55" s="0"/>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="3" t="n">
-        <f aca="false">H56*J56</f>
+        <f aca="false">'Inventory List'!H56*'Inventory List'!J56</f>
         <v>0</v>
       </c>
       <c r="L56" s="0"/>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="3" t="n">
-        <f aca="false">H57*J57</f>
+        <f aca="false">'Inventory List'!H57*'Inventory List'!J57</f>
         <v>0</v>
       </c>
       <c r="L57" s="0"/>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="3" t="n">
-        <f aca="false">H60*J60</f>
+        <f aca="false">'Inventory List'!H60*'Inventory List'!J60</f>
         <v>0</v>
       </c>
       <c r="L60" s="0"/>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3" t="n">
-        <f aca="false">H61*J61</f>
+        <f aca="false">'Inventory List'!H61*'Inventory List'!J61</f>
         <v>0</v>
       </c>
       <c r="L61" s="0"/>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="3" t="n">
-        <f aca="false">H62*J62</f>
+        <f aca="false">'Inventory List'!H62*'Inventory List'!J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="0"/>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="3" t="n">
-        <f aca="false">H65*J65</f>
+        <f aca="false">'Inventory List'!H65*'Inventory List'!J65</f>
         <v>0</v>
       </c>
       <c r="L65" s="0"/>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="3" t="n">
-        <f aca="false">H66*J66</f>
+        <f aca="false">'Inventory List'!H66*'Inventory List'!J66</f>
         <v>0</v>
       </c>
       <c r="L66" s="0"/>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="3" t="n">
-        <f aca="false">H67*J67</f>
+        <f aca="false">'Inventory List'!H67*'Inventory List'!J67</f>
         <v>0</v>
       </c>
       <c r="L67" s="0"/>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="3" t="n">
-        <f aca="false">H71*J71</f>
+        <f aca="false">'Inventory List'!H71*'Inventory List'!J71</f>
         <v>0</v>
       </c>
       <c r="L71" s="0"/>
@@ -3295,10 +3295,7 @@
       <c r="J74" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K74" s="3" t="n">
-        <f aca="false">H74*J74</f>
-        <v>0</v>
-      </c>
+      <c r="K74" s="4"/>
       <c r="L74" s="0"/>
       <c r="M74" s="1" t="s">
         <v>166</v>
@@ -3331,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="3" t="n">
-        <f aca="false">H75*J75</f>
+        <f aca="false">'Inventory List'!H75*'Inventory List'!J75</f>
         <v>0</v>
       </c>
       <c r="L75" s="0"/>
@@ -3361,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="3" t="n">
-        <f aca="false">H76*J76</f>
+        <f aca="false">'Inventory List'!H76*'Inventory List'!J76</f>
         <v>0</v>
       </c>
       <c r="L76" s="0"/>
@@ -3423,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="3" t="n">
-        <f aca="false">H79*J79</f>
+        <f aca="false">'Inventory List'!H79*'Inventory List'!J79</f>
         <v>0</v>
       </c>
       <c r="L79" s="0"/>
@@ -3453,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="3" t="n">
-        <f aca="false">H80*J80</f>
+        <f aca="false">'Inventory List'!H80*'Inventory List'!J80</f>
         <v>0</v>
       </c>
       <c r="L80" s="0"/>
@@ -3483,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="3" t="n">
-        <f aca="false">H81*J81</f>
+        <f aca="false">'Inventory List'!H81*'Inventory List'!J81</f>
         <v>0</v>
       </c>
       <c r="L81" s="0"/>
@@ -3513,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="3" t="n">
-        <f aca="false">H82*J82</f>
+        <f aca="false">'Inventory List'!H82*'Inventory List'!J82</f>
         <v>0</v>
       </c>
       <c r="L82" s="0"/>
@@ -3543,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="3" t="n">
-        <f aca="false">H83*J83</f>
+        <f aca="false">'Inventory List'!H83*'Inventory List'!J83</f>
         <v>0</v>
       </c>
       <c r="L83" s="0"/>
@@ -3573,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="3" t="n">
-        <f aca="false">H84*J84</f>
+        <f aca="false">'Inventory List'!H84*'Inventory List'!J84</f>
         <v>0</v>
       </c>
       <c r="L84" s="0"/>
@@ -3603,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="3" t="n">
-        <f aca="false">H85*J85</f>
+        <f aca="false">'Inventory List'!H85*'Inventory List'!J85</f>
         <v>0</v>
       </c>
       <c r="L85" s="0"/>
@@ -3682,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="3" t="n">
-        <f aca="false">H89*J89</f>
+        <f aca="false">'Inventory List'!H89*'Inventory List'!J89</f>
         <v>0</v>
       </c>
       <c r="L89" s="0"/>
@@ -3712,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="3" t="n">
-        <f aca="false">H90*J90</f>
+        <f aca="false">'Inventory List'!H90*'Inventory List'!J90</f>
         <v>0</v>
       </c>
       <c r="L90" s="6"/>
@@ -3742,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="3" t="n">
-        <f aca="false">H91*J91</f>
+        <f aca="false">'Inventory List'!H91*'Inventory List'!J91</f>
         <v>0</v>
       </c>
     </row>
@@ -3797,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="3" t="n">
-        <f aca="false">H94*J94</f>
+        <f aca="false">'Inventory List'!H94*'Inventory List'!J94</f>
         <v>0</v>
       </c>
     </row>
@@ -3826,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="3" t="n">
-        <f aca="false">H95*J95</f>
+        <f aca="false">'Inventory List'!H95*'Inventory List'!J95</f>
         <v>0</v>
       </c>
     </row>
@@ -3884,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="3" t="n">
-        <f aca="false">H98*J98</f>
+        <f aca="false">'Inventory List'!H98*'Inventory List'!J98</f>
         <v>0</v>
       </c>
     </row>
@@ -3912,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="3" t="n">
-        <f aca="false">H99*J99</f>
+        <f aca="false">'Inventory List'!H99*'Inventory List'!J99</f>
         <v>0</v>
       </c>
     </row>
@@ -3940,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="3" t="n">
-        <f aca="false">H100*J100</f>
+        <f aca="false">'Inventory List'!H100*'Inventory List'!J100</f>
         <v>0</v>
       </c>
     </row>
@@ -3991,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="3" t="n">
-        <f aca="false">H103*J103</f>
+        <f aca="false">'Inventory List'!H103*'Inventory List'!J103</f>
         <v>0</v>
       </c>
     </row>
@@ -4018,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="3" t="n">
-        <f aca="false">H104*J104</f>
+        <f aca="false">'Inventory List'!H104*'Inventory List'!J104</f>
         <v>0</v>
       </c>
     </row>
@@ -4045,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="3" t="n">
-        <f aca="false">H105*J105</f>
+        <f aca="false">'Inventory List'!H105*'Inventory List'!J105</f>
         <v>0</v>
       </c>
     </row>
@@ -4072,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="3" t="n">
-        <f aca="false">H106*J106</f>
+        <f aca="false">'Inventory List'!H106*'Inventory List'!J106</f>
         <v>0</v>
       </c>
     </row>
@@ -4084,7 +4081,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K109" s="3" t="n">
-        <f aca="false">SUM(K3:K108)</f>
+        <f aca="false">SUM('Inventory List'!K3:K108)</f>
         <v>0</v>
       </c>
     </row>
@@ -4192,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="3" t="n">
-        <f aca="false">H2*J2</f>
+        <f aca="false">'order (4)'!H2*'order (4)'!J2</f>
         <v>25.52</v>
       </c>
       <c r="L2" s="0"/>
@@ -4226,7 +4223,7 @@
         <v>8</v>
       </c>
       <c r="K3" s="3" t="n">
-        <f aca="false">H3*J3</f>
+        <f aca="false">'order (4)'!H3*'order (4)'!J3</f>
         <v>40</v>
       </c>
       <c r="L3" s="0"/>
@@ -4258,7 +4255,7 @@
         <v>4</v>
       </c>
       <c r="K4" s="3" t="n">
-        <f aca="false">H4*J4</f>
+        <f aca="false">'order (4)'!H4*'order (4)'!J4</f>
         <v>100</v>
       </c>
       <c r="L4" s="0"/>
@@ -4292,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="3" t="n">
-        <f aca="false">H5*J5</f>
+        <f aca="false">'order (4)'!H5*'order (4)'!J5</f>
         <v>7</v>
       </c>
       <c r="L5" s="0"/>
@@ -4326,7 +4323,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="3" t="n">
-        <f aca="false">H6*J6</f>
+        <f aca="false">'order (4)'!H6*'order (4)'!J6</f>
         <v>40</v>
       </c>
       <c r="L6" s="0"/>
@@ -4379,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3" t="n">
-        <f aca="false">H8*J8</f>
+        <f aca="false">'order (4)'!H8*'order (4)'!J8</f>
         <v>0</v>
       </c>
       <c r="L8" s="0"/>
@@ -4409,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="3" t="n">
-        <f aca="false">H9*J9</f>
+        <f aca="false">'order (4)'!H9*'order (4)'!J9</f>
         <v>0</v>
       </c>
       <c r="L9" s="0"/>
@@ -4439,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="3" t="n">
-        <f aca="false">H10*J10</f>
+        <f aca="false">'order (4)'!H10*'order (4)'!J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="0"/>
@@ -4473,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="3" t="n">
-        <f aca="false">H11*J11</f>
+        <f aca="false">'order (4)'!H11*'order (4)'!J11</f>
         <v>0</v>
       </c>
       <c r="L11" s="0"/>
@@ -4503,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3" t="n">
-        <f aca="false">H12*J12</f>
+        <f aca="false">'order (4)'!H12*'order (4)'!J12</f>
         <v>0</v>
       </c>
       <c r="L12" s="0"/>
@@ -4535,7 +4532,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="3" t="n">
-        <f aca="false">H13*J13</f>
+        <f aca="false">'order (4)'!H13*'order (4)'!J13</f>
         <v>24.95</v>
       </c>
       <c r="L13" s="0"/>
@@ -4563,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="3" t="n">
-        <f aca="false">H14*J14</f>
+        <f aca="false">'order (4)'!H14*'order (4)'!J14</f>
         <v>99.95</v>
       </c>
       <c r="L14" s="0"/>
@@ -4591,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="3" t="n">
-        <f aca="false">H15*J15</f>
+        <f aca="false">'order (4)'!H15*'order (4)'!J15</f>
         <v>17.95</v>
       </c>
       <c r="L15" s="0"/>
@@ -4626,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="3" t="n">
-        <f aca="false">H16*J16</f>
+        <f aca="false">'order (4)'!H16*'order (4)'!J16</f>
         <v>0</v>
       </c>
       <c r="L16" s="0"/>
@@ -4661,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="3" t="n">
-        <f aca="false">H17*J17</f>
+        <f aca="false">'order (4)'!H17*'order (4)'!J17</f>
         <v>27.95</v>
       </c>
       <c r="L17" s="0"/>
@@ -4696,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="3" t="n">
-        <f aca="false">H18*J18</f>
+        <f aca="false">'order (4)'!H18*'order (4)'!J18</f>
         <v>16.95</v>
       </c>
       <c r="L18" s="0"/>
@@ -4731,7 +4728,7 @@
         <v>3</v>
       </c>
       <c r="K19" s="3" t="n">
-        <f aca="false">H19*J19</f>
+        <f aca="false">'order (4)'!H19*'order (4)'!J19</f>
         <v>35.85</v>
       </c>
       <c r="L19" s="0"/>
@@ -4766,7 +4763,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="3" t="n">
-        <f aca="false">H20*J20</f>
+        <f aca="false">'order (4)'!H20*'order (4)'!J20</f>
         <v>19.9</v>
       </c>
       <c r="L20" s="0"/>
@@ -4798,7 +4795,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="3" t="n">
-        <f aca="false">H21*J21</f>
+        <f aca="false">'order (4)'!H21*'order (4)'!J21</f>
         <v>23.8</v>
       </c>
       <c r="L21" s="0"/>
@@ -4828,7 +4825,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="n">
-        <f aca="false">H22*J22</f>
+        <f aca="false">'order (4)'!H22*'order (4)'!J22</f>
         <v>14.85</v>
       </c>
       <c r="L22" s="0"/>
@@ -4860,7 +4857,7 @@
         <v>4</v>
       </c>
       <c r="K23" s="3" t="n">
-        <f aca="false">H23*J23</f>
+        <f aca="false">'order (4)'!H23*'order (4)'!J23</f>
         <v>19.8</v>
       </c>
       <c r="L23" s="0"/>
@@ -4892,7 +4889,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="n">
-        <f aca="false">H24*J24</f>
+        <f aca="false">'order (4)'!H24*'order (4)'!J24</f>
         <v>27.9</v>
       </c>
       <c r="L24" s="0"/>
@@ -4924,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="3" t="n">
-        <f aca="false">H25*J25</f>
+        <f aca="false">'order (4)'!H25*'order (4)'!J25</f>
         <v>0</v>
       </c>
       <c r="L25" s="0"/>
@@ -4953,7 +4950,7 @@
         <v>2</v>
       </c>
       <c r="K26" s="3" t="n">
-        <f aca="false">H26*J26</f>
+        <f aca="false">'order (4)'!H26*'order (4)'!J26</f>
         <v>21.9</v>
       </c>
     </row>
@@ -4982,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="3" t="n">
-        <f aca="false">H27*J27</f>
+        <f aca="false">'order (4)'!H27*'order (4)'!J27</f>
         <v>12.95</v>
       </c>
       <c r="L27" s="0"/>
@@ -5013,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="3" t="n">
-        <f aca="false">H28*J28</f>
+        <f aca="false">'order (4)'!H28*'order (4)'!J28</f>
         <v>0</v>
       </c>
       <c r="L28" s="0"/>
@@ -5044,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="3" t="n">
-        <f aca="false">H29*J29</f>
+        <f aca="false">'order (4)'!H29*'order (4)'!J29</f>
         <v>0</v>
       </c>
       <c r="L29" s="0"/>
@@ -5075,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="3" t="n">
-        <f aca="false">H30*J30</f>
+        <f aca="false">'order (4)'!H30*'order (4)'!J30</f>
         <v>15.95</v>
       </c>
       <c r="L30" s="0"/>
@@ -5106,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="3" t="n">
-        <f aca="false">H31*J31</f>
+        <f aca="false">'order (4)'!H31*'order (4)'!J31</f>
         <v>15.95</v>
       </c>
       <c r="L31" s="0"/>
@@ -5135,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="3" t="n">
-        <f aca="false">H32*J32</f>
+        <f aca="false">'order (4)'!H32*'order (4)'!J32</f>
         <v>0</v>
       </c>
       <c r="L32" s="0"/>
@@ -5168,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="3" t="n">
-        <f aca="false">H33*J33</f>
+        <f aca="false">'order (4)'!H33*'order (4)'!J33</f>
         <v>0</v>
       </c>
       <c r="L33" s="0"/>
@@ -5201,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="3" t="n">
-        <f aca="false">H34*J34</f>
+        <f aca="false">'order (4)'!H34*'order (4)'!J34</f>
         <v>0</v>
       </c>
       <c r="L34" s="0"/>
@@ -5234,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="3" t="n">
-        <f aca="false">H35*J35</f>
+        <f aca="false">'order (4)'!H35*'order (4)'!J35</f>
         <v>0</v>
       </c>
       <c r="L35" s="0"/>
@@ -5264,7 +5261,7 @@
         <v>4</v>
       </c>
       <c r="K36" s="4" t="n">
-        <f aca="false">H36*J36</f>
+        <f aca="false">'order (4)'!H36*'order (4)'!J36</f>
         <v>27.8</v>
       </c>
       <c r="L36" s="5"/>
@@ -5295,7 +5292,7 @@
         <v>2</v>
       </c>
       <c r="K37" s="3" t="n">
-        <f aca="false">H37*J37</f>
+        <f aca="false">'order (4)'!H37*'order (4)'!J37</f>
         <v>7.9</v>
       </c>
       <c r="L37" s="0"/>
@@ -5326,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="3" t="n">
-        <f aca="false">H38*J38</f>
+        <f aca="false">'order (4)'!H38*'order (4)'!J38</f>
         <v>27.95</v>
       </c>
       <c r="L38" s="0"/>
@@ -5357,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="3" t="n">
-        <f aca="false">H39*J39</f>
+        <f aca="false">'order (4)'!H39*'order (4)'!J39</f>
         <v>0</v>
       </c>
       <c r="L39" s="0"/>
@@ -5388,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="3" t="n">
-        <f aca="false">H40*J40</f>
+        <f aca="false">'order (4)'!H40*'order (4)'!J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="0"/>
@@ -5419,7 +5416,7 @@
         <v>4</v>
       </c>
       <c r="K41" s="3" t="n">
-        <f aca="false">H41*J41</f>
+        <f aca="false">'order (4)'!H41*'order (4)'!J41</f>
         <v>27.8</v>
       </c>
       <c r="L41" s="0"/>
@@ -5448,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="3" t="n">
-        <f aca="false">H42*J42</f>
+        <f aca="false">'order (4)'!H42*'order (4)'!J42</f>
         <v>0</v>
       </c>
       <c r="L42" s="0"/>
@@ -5479,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="3" t="n">
-        <f aca="false">H43*J43</f>
+        <f aca="false">'order (4)'!H43*'order (4)'!J43</f>
         <v>0</v>
       </c>
       <c r="L43" s="0"/>
@@ -5510,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="3" t="n">
-        <f aca="false">H44*J44</f>
+        <f aca="false">'order (4)'!H44*'order (4)'!J44</f>
         <v>9.95</v>
       </c>
       <c r="L44" s="0"/>
@@ -5539,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3" t="n">
-        <f aca="false">H45*J45</f>
+        <f aca="false">'order (4)'!H45*'order (4)'!J45</f>
         <v>0</v>
       </c>
       <c r="L45" s="0"/>
@@ -5574,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="3" t="n">
-        <f aca="false">H46*J46</f>
+        <f aca="false">'order (4)'!H46*'order (4)'!J46</f>
         <v>0</v>
       </c>
       <c r="L46" s="0"/>
@@ -5605,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="3" t="n">
-        <f aca="false">H47*J47</f>
+        <f aca="false">'order (4)'!H47*'order (4)'!J47</f>
         <v>0</v>
       </c>
       <c r="L47" s="1" t="s">
@@ -5640,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="3" t="n">
-        <f aca="false">H48*J48</f>
+        <f aca="false">'order (4)'!H48*'order (4)'!J48</f>
         <v>0</v>
       </c>
       <c r="L48" s="0"/>
@@ -5669,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="3" t="n">
-        <f aca="false">H49*J49</f>
+        <f aca="false">'order (4)'!H49*'order (4)'!J49</f>
         <v>0</v>
       </c>
       <c r="L49" s="0"/>
@@ -5700,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="3" t="n">
-        <f aca="false">H50*J50</f>
+        <f aca="false">'order (4)'!H50*'order (4)'!J50</f>
         <v>0</v>
       </c>
       <c r="L50" s="0"/>
@@ -5733,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="3" t="n">
-        <f aca="false">H51*J51</f>
+        <f aca="false">'order (4)'!H51*'order (4)'!J51</f>
         <v>0</v>
       </c>
       <c r="L51" s="0"/>
@@ -5758,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="3" t="n">
-        <f aca="false">H52*J52</f>
+        <f aca="false">'order (4)'!H52*'order (4)'!J52</f>
         <v>0</v>
       </c>
       <c r="L52" s="0"/>
@@ -5787,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="3" t="n">
-        <f aca="false">H53*J53</f>
+        <f aca="false">'order (4)'!H53*'order (4)'!J53</f>
         <v>0</v>
       </c>
       <c r="L53" s="0"/>
@@ -5818,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="3" t="n">
-        <f aca="false">H54*J54</f>
+        <f aca="false">'order (4)'!H54*'order (4)'!J54</f>
         <v>0</v>
       </c>
       <c r="L54" s="0"/>
@@ -5847,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="3" t="n">
-        <f aca="false">H55*J55</f>
+        <f aca="false">'order (4)'!H55*'order (4)'!J55</f>
         <v>0</v>
       </c>
       <c r="L55" s="0"/>
@@ -5878,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="3" t="n">
-        <f aca="false">H56*J56</f>
+        <f aca="false">'order (4)'!H56*'order (4)'!J56</f>
         <v>0</v>
       </c>
       <c r="L56" s="0"/>
@@ -5909,7 +5906,7 @@
         <v>2</v>
       </c>
       <c r="K57" s="3" t="n">
-        <f aca="false">H57*J57</f>
+        <f aca="false">'order (4)'!H57*'order (4)'!J57</f>
         <v>1.9</v>
       </c>
       <c r="L57" s="0"/>
@@ -5940,7 +5937,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="3" t="n">
-        <f aca="false">H58*J58</f>
+        <f aca="false">'order (4)'!H58*'order (4)'!J58</f>
         <v>3.95</v>
       </c>
       <c r="L58" s="0"/>
@@ -5969,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="3" t="n">
-        <f aca="false">H59*J59</f>
+        <f aca="false">'order (4)'!H59*'order (4)'!J59</f>
         <v>0</v>
       </c>
       <c r="L59" s="0"/>
@@ -6000,7 +5997,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="3" t="n">
-        <f aca="false">H60*J60</f>
+        <f aca="false">'order (4)'!H60*'order (4)'!J60</f>
         <v>4.95</v>
       </c>
       <c r="L60" s="0"/>
@@ -6031,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3" t="n">
-        <f aca="false">H61*J61</f>
+        <f aca="false">'order (4)'!H61*'order (4)'!J61</f>
         <v>0</v>
       </c>
       <c r="L61" s="0"/>
@@ -6352,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="3" t="n">
-        <f aca="false">H81*J81</f>
+        <f aca="false">'order (4)'!H81*'order (4)'!J81</f>
         <v>0</v>
       </c>
       <c r="L81" s="0"/>
@@ -6387,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="3" t="n">
-        <f aca="false">H82*J82</f>
+        <f aca="false">'order (4)'!H82*'order (4)'!J82</f>
         <v>0</v>
       </c>
       <c r="L82" s="0"/>
@@ -6418,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="3" t="n">
-        <f aca="false">H83*J83</f>
+        <f aca="false">'order (4)'!H83*'order (4)'!J83</f>
         <v>0</v>
       </c>
       <c r="L83" s="0"/>
@@ -6439,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="3" t="n">
-        <f aca="false">H84*J84</f>
+        <f aca="false">'order (4)'!H84*'order (4)'!J84</f>
         <v>0</v>
       </c>
       <c r="L84" s="0"/>
@@ -6579,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="3" t="n">
-        <f aca="false">H93*J93</f>
+        <f aca="false">'order (4)'!H93*'order (4)'!J93</f>
         <v>0</v>
       </c>
       <c r="L93" s="0"/>
@@ -6635,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="3" t="n">
-        <f aca="false">H96*J96</f>
+        <f aca="false">'order (4)'!H96*'order (4)'!J96</f>
         <v>0</v>
       </c>
       <c r="L96" s="0"/>
@@ -6665,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="3" t="n">
-        <f aca="false">H97*J97</f>
+        <f aca="false">'order (4)'!H97*'order (4)'!J97</f>
         <v>0</v>
       </c>
       <c r="L97" s="0"/>
@@ -6695,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="3" t="n">
-        <f aca="false">H98*J98</f>
+        <f aca="false">'order (4)'!H98*'order (4)'!J98</f>
         <v>0</v>
       </c>
       <c r="L98" s="0"/>
@@ -6725,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="3" t="n">
-        <f aca="false">H99*J99</f>
+        <f aca="false">'order (4)'!H99*'order (4)'!J99</f>
         <v>0</v>
       </c>
       <c r="L99" s="0"/>
@@ -6755,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="3" t="n">
-        <f aca="false">H100*J100</f>
+        <f aca="false">'order (4)'!H100*'order (4)'!J100</f>
         <v>0</v>
       </c>
       <c r="L100" s="0"/>
@@ -6785,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="3" t="n">
-        <f aca="false">H101*J101</f>
+        <f aca="false">'order (4)'!H101*'order (4)'!J101</f>
         <v>0</v>
       </c>
       <c r="L101" s="0"/>
@@ -6815,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="3" t="n">
-        <f aca="false">H102*J102</f>
+        <f aca="false">'order (4)'!H102*'order (4)'!J102</f>
         <v>0</v>
       </c>
       <c r="L102" s="0"/>
@@ -6888,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="3" t="n">
-        <f aca="false">H106*J106</f>
+        <f aca="false">'order (4)'!H106*'order (4)'!J106</f>
         <v>0</v>
       </c>
       <c r="L106" s="0"/>
@@ -6918,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="3" t="n">
-        <f aca="false">H107*J107</f>
+        <f aca="false">'order (4)'!H107*'order (4)'!J107</f>
         <v>0</v>
       </c>
       <c r="L107" s="6"/>
@@ -6948,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="3" t="n">
-        <f aca="false">H108*J108</f>
+        <f aca="false">'order (4)'!H108*'order (4)'!J108</f>
         <v>0</v>
       </c>
     </row>
@@ -6997,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="3" t="n">
-        <f aca="false">H111*J111</f>
+        <f aca="false">'order (4)'!H111*'order (4)'!J111</f>
         <v>0</v>
       </c>
     </row>
@@ -7066,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="3" t="n">
-        <f aca="false">H115*J115</f>
+        <f aca="false">'order (4)'!H115*'order (4)'!J115</f>
         <v>0</v>
       </c>
     </row>
@@ -7095,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="K116" s="3" t="n">
-        <f aca="false">H116*J116</f>
+        <f aca="false">'order (4)'!H116*'order (4)'!J116</f>
         <v>0</v>
       </c>
     </row>
@@ -7124,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="3" t="n">
-        <f aca="false">H117*J117</f>
+        <f aca="false">'order (4)'!H117*'order (4)'!J117</f>
         <v>0</v>
       </c>
     </row>
@@ -7175,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="3" t="n">
-        <f aca="false">H120*J120</f>
+        <f aca="false">'order (4)'!H120*'order (4)'!J120</f>
         <v>0</v>
       </c>
     </row>
@@ -7202,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="3" t="n">
-        <f aca="false">H121*J121</f>
+        <f aca="false">'order (4)'!H121*'order (4)'!J121</f>
         <v>0</v>
       </c>
     </row>
@@ -7220,7 +7217,7 @@
       <c r="C124" s="0"/>
       <c r="D124" s="0"/>
       <c r="K124" s="3" t="n">
-        <f aca="false">SUM(K2:K123)</f>
+        <f aca="false">SUM('order (4)'!K2:K123)</f>
         <v>721.32</v>
       </c>
     </row>
@@ -7363,7 +7360,7 @@
         <v>4</v>
       </c>
       <c r="J2" s="4" t="n">
-        <f aca="false">G2*I2</f>
+        <f aca="false">Sheet1!G2*Sheet1!I2</f>
         <v>71.8</v>
       </c>
       <c r="L2" s="0" t="n">
@@ -7374,7 +7371,7 @@
         <v>416</v>
       </c>
       <c r="N2" s="0" t="n">
-        <f aca="false">M2/25</f>
+        <f aca="false">Sheet1!M2/25</f>
         <v>16.64</v>
       </c>
     </row>
@@ -7398,14 +7395,14 @@
         <v>4</v>
       </c>
       <c r="J4" s="4" t="n">
-        <f aca="false">G4*I4</f>
+        <f aca="false">Sheet1!G4*Sheet1!I4</f>
         <v>19.8</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>288</v>
       </c>
       <c r="N4" s="0" t="n">
-        <f aca="false">M4/25</f>
+        <f aca="false">Sheet1!M4/25</f>
         <v>11.52</v>
       </c>
     </row>
@@ -7432,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="4" t="n">
-        <f aca="false">G5*I5</f>
+        <f aca="false">Sheet1!G5*Sheet1!I5</f>
         <v>9.95</v>
       </c>
     </row>
@@ -7459,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="n">
-        <f aca="false">G6*I6</f>
+        <f aca="false">Sheet1!G6*Sheet1!I6</f>
         <v>9.95</v>
       </c>
     </row>
@@ -7483,7 +7480,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="4" t="n">
-        <f aca="false">G7*I7</f>
+        <f aca="false">Sheet1!G7*Sheet1!I7</f>
         <v>5.9</v>
       </c>
     </row>
@@ -7510,7 +7507,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="4" t="n">
-        <f aca="false">G8*I8</f>
+        <f aca="false">Sheet1!G8*Sheet1!I8</f>
         <v>8.95</v>
       </c>
     </row>
@@ -7534,7 +7531,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="4" t="n">
-        <f aca="false">G9*I9</f>
+        <f aca="false">Sheet1!G9*Sheet1!I9</f>
         <v>99.8</v>
       </c>
     </row>
@@ -7561,7 +7558,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="4" t="n">
-        <f aca="false">G10*I10</f>
+        <f aca="false">Sheet1!G10*Sheet1!I10</f>
         <v>27.8</v>
       </c>
     </row>
@@ -7588,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="4" t="n">
-        <f aca="false">G11*I11</f>
+        <f aca="false">Sheet1!G11*Sheet1!I11</f>
         <v>15.95</v>
       </c>
     </row>
@@ -7615,7 +7612,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="4" t="n">
-        <f aca="false">G12*I12</f>
+        <f aca="false">Sheet1!G12*Sheet1!I12</f>
         <v>31.9</v>
       </c>
     </row>
@@ -7642,7 +7639,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="4" t="n">
-        <f aca="false">G13*I13</f>
+        <f aca="false">Sheet1!G13*Sheet1!I13</f>
         <v>11.9</v>
       </c>
     </row>
@@ -7666,7 +7663,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="4" t="n">
-        <f aca="false">G14*I14</f>
+        <f aca="false">Sheet1!G14*Sheet1!I14</f>
         <v>13.95</v>
       </c>
     </row>
@@ -7693,7 +7690,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="4" t="n">
-        <f aca="false">G15*I15</f>
+        <f aca="false">Sheet1!G15*Sheet1!I15</f>
         <v>99.9</v>
       </c>
     </row>
@@ -7720,7 +7717,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="4" t="n">
-        <f aca="false">G16*I16</f>
+        <f aca="false">Sheet1!G16*Sheet1!I16</f>
         <v>14.25</v>
       </c>
     </row>
@@ -7744,7 +7741,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="4" t="n">
-        <f aca="false">G17*I17</f>
+        <f aca="false">Sheet1!G17*Sheet1!I17</f>
         <v>16.95</v>
       </c>
     </row>
@@ -7757,7 +7754,7 @@
       </c>
       <c r="G18" s="0"/>
       <c r="J18" s="4" t="n">
-        <f aca="false">G18*I18</f>
+        <f aca="false">Sheet1!G18*Sheet1!I18</f>
         <v>0</v>
       </c>
     </row>
@@ -7770,7 +7767,7 @@
       </c>
       <c r="G19" s="0"/>
       <c r="J19" s="4" t="n">
-        <f aca="false">G19*I19</f>
+        <f aca="false">Sheet1!G19*Sheet1!I19</f>
         <v>0</v>
       </c>
     </row>
@@ -7797,7 +7794,7 @@
         <v>4</v>
       </c>
       <c r="J20" s="4" t="n">
-        <f aca="false">G20*I20</f>
+        <f aca="false">Sheet1!G20*Sheet1!I20</f>
         <v>79.8</v>
       </c>
     </row>
@@ -7821,7 +7818,7 @@
         <v>6</v>
       </c>
       <c r="J21" s="4" t="n">
-        <f aca="false">G21*I21</f>
+        <f aca="false">Sheet1!G21*Sheet1!I21</f>
         <v>95.7</v>
       </c>
     </row>
@@ -7845,7 +7842,7 @@
         <v>5</v>
       </c>
       <c r="J22" s="4" t="n">
-        <f aca="false">G22*I22</f>
+        <f aca="false">Sheet1!G22*Sheet1!I22</f>
         <v>9.75</v>
       </c>
     </row>
@@ -7872,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="4" t="n">
-        <f aca="false">G23*I23</f>
+        <f aca="false">Sheet1!G23*Sheet1!I23</f>
         <v>27.17</v>
       </c>
     </row>
@@ -7899,7 +7896,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="4" t="n">
-        <f aca="false">G24*I24</f>
+        <f aca="false">Sheet1!G24*Sheet1!I24</f>
         <v>12.77</v>
       </c>
     </row>
@@ -7926,7 +7923,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="4" t="n">
-        <f aca="false">G25*I25</f>
+        <f aca="false">Sheet1!G25*Sheet1!I25</f>
         <v>6.08</v>
       </c>
     </row>
